--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>299.5026660215569</v>
+        <v>292.9493111714867</v>
       </c>
       <c r="G2" t="n">
-        <v>14.03140916661338</v>
+        <v>11.8981188864508</v>
       </c>
       <c r="H2" t="n">
-        <v>569.3231684906143</v>
+        <v>572.0194210726635</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8980323309829128</v>
+        <v>0.8516594510945092</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01994645540883831</v>
+        <v>0.004768713357223888</v>
       </c>
       <c r="K2" t="n">
-        <v>1.939836633348208</v>
+        <v>1.906160629249368</v>
       </c>
       <c r="L2" t="n">
-        <v>0.219019955608776</v>
+        <v>0.2154215836834852</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006921767632419485</v>
+        <v>0.005815793222985975</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4504480044960292</v>
+        <v>0.4500286874370475</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009999798053510981</v>
+        <v>0.01055935332672279</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003197447505509042</v>
+        <v>0.003311934318088492</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01690159503200846</v>
+        <v>0.01728483438496988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009310425211427423</v>
+        <v>0.009832905671128541</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003007432115654488</v>
+        <v>0.003107878241312848</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01570412431110988</v>
+        <v>0.01606355569581449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01003827696931523</v>
+        <v>0.01059426475390616</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003242444967037269</v>
+        <v>0.003354227789421582</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01693140092919879</v>
+        <v>0.01731465006304948</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.1537386519519979</v>
       </c>
       <c r="F4" t="n">
-        <v>299.5126658196104</v>
+        <v>292.9598705248134</v>
       </c>
       <c r="G4" t="n">
-        <v>14.03460661411889</v>
+        <v>11.90143082076889</v>
       </c>
       <c r="H4" t="n">
-        <v>569.3400700856464</v>
+        <v>572.0367059070485</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9073427561943402</v>
+        <v>0.8614923567656378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0229538875244928</v>
+        <v>0.007876591598536736</v>
       </c>
       <c r="K4" t="n">
-        <v>1.955540757659318</v>
+        <v>1.922224184945182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2290582325780912</v>
+        <v>0.2260158484373913</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01016421259945675</v>
+        <v>0.009170021012407556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.467379405425228</v>
+        <v>0.467343337500097</v>
       </c>
     </row>
   </sheetData>
